--- a/protocol_steffi_20150814.xlsx
+++ b/protocol_steffi_20150814.xlsx
@@ -144,7 +144,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -194,16 +194,16 @@
         <v>75</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>30</v>
@@ -213,7 +213,7 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">(D2*E2+F2)*H2+G2*1000</f>
-        <v>330000</v>
+        <v>355000</v>
       </c>
     </row>
   </sheetData>

--- a/protocol_steffi_20150814.xlsx
+++ b/protocol_steffi_20150814.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="8200"/>
+    <workbookView xWindow="3640" yWindow="10040" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -54,13 +52,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,13 +94,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,13 +438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -470,58 +495,172 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>30</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f>(D2*E2+F2)*H2+G2*1000</f>
-        <v>355000</v>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="0">(D3*E3+F3)*H3+G3*1000</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
